--- a/predictions/global/LinearRegression/Comorbilidades.xlsx
+++ b/predictions/global/LinearRegression/Comorbilidades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -467,7 +472,10 @@
       <c r="C2" t="n">
         <v>0.9759500673054197</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0.9239883288152645</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -485,7 +493,10 @@
       <c r="C3" t="n">
         <v>0.9792417162002093</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0.8429226117853587</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -503,7 +514,10 @@
       <c r="C4" t="n">
         <v>0.9781319478914671</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0.886280647950258</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -521,7 +535,10 @@
       <c r="C5" t="n">
         <v>0.9765054157231221</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0.8956978851546247</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -539,7 +556,10 @@
       <c r="C6" t="n">
         <v>0.9606827186718532</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>1.027519701295929</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -557,7 +577,10 @@
       <c r="C7" t="n">
         <v>0.9658637346517203</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>1.350102492671558</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -575,7 +598,10 @@
       <c r="C8" t="n">
         <v>0.9392010439445886</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>2.046624516121589</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -593,7 +619,10 @@
       <c r="C9" t="n">
         <v>0.9658524003583331</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>2.091210877959376</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -611,7 +640,10 @@
       <c r="C10" t="n">
         <v>0.9882273702725888</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>0.6472536726993832</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -629,7 +661,10 @@
       <c r="C11" t="n">
         <v>0.9864038419914258</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>0.3447233267553575</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -647,7 +682,10 @@
       <c r="C12" t="n">
         <v>0.9707066264270403</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>0.8583964064824784</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -665,7 +703,10 @@
       <c r="C13" t="n">
         <v>0.9581636976144882</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>1.863313287418611</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -683,7 +724,10 @@
       <c r="C14" t="n">
         <v>0.9695880642222126</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>1.29915171380136</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>global</t>
         </is>

--- a/predictions/global/LinearRegression/Comorbilidades.xlsx
+++ b/predictions/global/LinearRegression/Comorbilidades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +485,16 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -501,6 +516,16 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -522,6 +547,16 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -543,6 +578,16 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +609,16 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -585,6 +640,16 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -606,6 +671,16 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -627,6 +702,16 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -648,6 +733,16 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -669,6 +764,16 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -690,6 +795,16 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -711,6 +826,16 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -730,6 +855,16 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/global/LinearRegression/Comorbilidades.xlsx
+++ b/predictions/global/LinearRegression/Comorbilidades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,6 +505,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -526,6 +542,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -557,6 +579,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -588,6 +616,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -619,6 +653,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -650,6 +690,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -681,6 +727,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -712,6 +764,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -743,6 +801,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -774,6 +838,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -805,6 +875,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -836,6 +912,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -866,6 +948,12 @@
                                                                                  False]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/global/LinearRegression/Comorbilidades.xlsx
+++ b/predictions/global/LinearRegression/Comorbilidades.xlsx
@@ -502,14 +502,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H2" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -539,14 +539,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H3" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -576,14 +576,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H4" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -613,14 +613,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H5" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -650,14 +650,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H6" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -687,14 +687,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H7" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -724,14 +724,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H8" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -761,14 +761,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H9" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -798,14 +798,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H10" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -835,14 +835,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H11" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -872,14 +872,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H12" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -909,14 +909,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H13" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -946,14 +946,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H14" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/global/LinearRegression/Comorbilidades.xlsx
+++ b/predictions/global/LinearRegression/Comorbilidades.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -950,10 +950,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
   </sheetData>
